--- a/src/assets/data/9_Financiera/Formatos/GF-FOR-003 Devoluciones.xlsx
+++ b/src/assets/data/9_Financiera/Formatos/GF-FOR-003 Devoluciones.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7miFIGmwsltgAzkPRRYMyrWgjJ0WZg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mh7OtQTb9pFWi7Uo8vNoXpVd7MyOg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -1213,7 +1213,7 @@
     <xdr:ext cx="504825" cy="628650"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1241,7 +1241,7 @@
     <xdr:ext cx="847725" cy="657225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1265,7 +1265,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1284,7 +1284,6 @@
     <col customWidth="1" min="10" max="10" width="10.71"/>
     <col customWidth="1" min="11" max="11" width="8.29"/>
     <col customWidth="1" min="12" max="12" width="10.86"/>
-    <col customWidth="1" min="13" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -2015,7 +2014,7 @@
       <c r="K46" s="57"/>
       <c r="L46" s="68"/>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" ht="13.5" hidden="1" customHeight="1">
       <c r="A47" s="72" t="s">
         <v>40</v>
       </c>
@@ -2031,7 +2030,7 @@
       <c r="K47" s="73"/>
       <c r="L47" s="74"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" hidden="1" customHeight="1">
       <c r="A48" s="9"/>
       <c r="B48" s="75" t="s">
         <v>41</v>
@@ -2051,7 +2050,7 @@
       <c r="K48" s="76"/>
       <c r="L48" s="77"/>
     </row>
-    <row r="49" ht="22.5" customHeight="1">
+    <row r="49" ht="22.5" hidden="1" customHeight="1">
       <c r="A49" s="9"/>
       <c r="B49" s="79" t="s">
         <v>44</v>
@@ -2077,7 +2076,7 @@
       </c>
       <c r="L49" s="82"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" hidden="1" customHeight="1">
       <c r="A50" s="83"/>
       <c r="B50" s="84" t="s">
         <v>50</v>
@@ -3084,7 +3083,7 @@
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.3937007874015748" footer="0.0" header="0.0" left="0.7874015748031497" right="0.3937007874015748" top="0.3937007874015748"/>
-  <pageSetup scale="78" orientation="portrait"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>